--- a/Data/Winrates_Data_2 - Kopi.xlsx
+++ b/Data/Winrates_Data_2 - Kopi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\Desktop\Speciale\Kode\Git\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F0390-D2B0-440F-86B0-445A6A033395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D5450-39EC-4A17-AA8D-D9C1449D5876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{5B6D6821-1145-4596-9880-6E782CA02392}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B6D6821-1145-4596-9880-6E782CA02392}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Aggro DH</t>
   </si>
@@ -94,6 +94,12 @@
   <si>
     <t>Enrage Warrior</t>
   </si>
+  <si>
+    <t>Andre levels spiller disse decks:</t>
+  </si>
+  <si>
+    <t>Normaliseret</t>
+  </si>
 </sst>
 </file>
 
@@ -116,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -165,12 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,18 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015156-9DF1-4446-BEA9-1D9FD9389257}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C1">
         <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
@@ -644,7 +657,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -706,13 +719,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>1/COUNT($C$3:$C$22)</f>
         <v>0.05</v>
       </c>
       <c r="B3">
-        <f>1/COUNT($C$3:$V$3)</f>
+        <f t="shared" ref="B3:B22" si="1">1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C3" s="1">
@@ -775,14 +788,22 @@
       <c r="V3" s="2">
         <v>34.979999999999997</v>
       </c>
+      <c r="W3">
+        <f>SUMPRODUCT(C3:V3,$C$26:$V$26)</f>
+        <v>51.354214285714278</v>
+      </c>
+      <c r="X3">
+        <f>MAX(W3:W23)</f>
+        <v>53.323142857142855</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A22" si="1">1/COUNT($C$3:$C$22)</f>
+        <f t="shared" ref="A4:A22" si="2">1/COUNT($C$3:$C$22)</f>
         <v>0.05</v>
       </c>
       <c r="B4">
-        <f>1/COUNT($C$3:$V$3)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="C4" s="3">
@@ -845,14 +866,18 @@
       <c r="V4">
         <v>58.52</v>
       </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W23" si="3">SUMPRODUCT(C4:V4,$C$26:$V$26)</f>
+        <v>41.254142857142845</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B5">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C5" s="3">
@@ -915,14 +940,18 @@
       <c r="V5">
         <v>48.480000000000004</v>
       </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>44.192214285714279</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B6">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C6" s="3">
@@ -985,14 +1014,18 @@
       <c r="V6">
         <v>51.76</v>
       </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>47.52757142857142</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B7">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C7" s="3">
@@ -1055,14 +1088,18 @@
       <c r="V7">
         <v>50.580000000000005</v>
       </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>51.061571428571419</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B8">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C8" s="3">
@@ -1125,14 +1162,18 @@
       <c r="V8">
         <v>60.12</v>
       </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>50.379428571428555</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B9">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C9" s="3">
@@ -1195,14 +1236,18 @@
       <c r="V9">
         <v>53.37</v>
       </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>43.992214285714276</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B10">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C10" s="3">
@@ -1265,14 +1310,18 @@
       <c r="V10">
         <v>36.309999999999995</v>
       </c>
+      <c r="W10" s="5">
+        <f t="shared" si="3"/>
+        <v>52.662499999999987</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B11">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C11" s="3">
@@ -1335,14 +1384,18 @@
       <c r="V11">
         <v>61.739999999999995</v>
       </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>51.514857142857139</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B12">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C12" s="3">
@@ -1405,14 +1458,18 @@
       <c r="V12">
         <v>71.17</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>44.427714285714281</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B13">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C13" s="3">
@@ -1475,14 +1532,18 @@
       <c r="V13">
         <v>73.16</v>
       </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>43.720714285714287</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B14">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C14" s="3">
@@ -1545,14 +1606,18 @@
       <c r="V14">
         <v>46.949999999999996</v>
       </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>49.337285714285706</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B15">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C15" s="3">
@@ -1615,14 +1680,18 @@
       <c r="V15">
         <v>42.39</v>
       </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>44.982214285714278</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B16">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C16" s="3">
@@ -1685,14 +1754,18 @@
       <c r="V16">
         <v>58.69</v>
       </c>
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>40.174857142857128</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B17">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C17" s="3">
@@ -1755,14 +1828,18 @@
       <c r="V17">
         <v>51.55</v>
       </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>40.499285714285705</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B18">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C18" s="3">
@@ -1825,14 +1902,18 @@
       <c r="V18">
         <v>35.480000000000004</v>
       </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>47.405999999999992</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B19">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C19" s="3">
@@ -1895,14 +1976,18 @@
       <c r="V19">
         <v>53.620000000000005</v>
       </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>52.416499999999985</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B20">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C20" s="3">
@@ -1965,14 +2050,18 @@
       <c r="V20">
         <v>45.12</v>
       </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>48.490500000000004</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B21">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C21" s="3">
@@ -2035,14 +2124,18 @@
       <c r="V21">
         <v>35.730000000000004</v>
       </c>
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>51.628785714285719</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="B22">
-        <f>1/COUNT($C$3:$V$3)</f>
         <v>0.05</v>
       </c>
       <c r="C22" s="3">
@@ -2105,87 +2198,327 @@
       <c r="V22" s="4">
         <v>50</v>
       </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>53.323142857142855</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C23">
         <f>SUMPRODUCT(C3:C22,$B$3:$B$22)</f>
         <v>50.753500000000003</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:V23" si="2">SUMPRODUCT(D3:D22,$B$3:$B$22)</f>
+        <f t="shared" ref="D23:V23" si="4">SUMPRODUCT(D3:D22,$B$3:$B$22)</f>
         <v>53.207000000000008</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.331500000000013</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.009</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.563000000000002</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47.328000000000003</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51.63150000000001</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.747500000000002</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47.212000000000003</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.621999999999993</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51.244999999999997</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.913000000000011</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.761499999999998</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.131999999999998</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.25500000000001</v>
       </c>
       <c r="R23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47.785999999999994</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.861500000000007</v>
       </c>
       <c r="T23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.095500000000001</v>
       </c>
       <c r="U23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.559500000000007</v>
       </c>
       <c r="V23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.986000000000004</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>47.51728571428572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f>0.6*1/COUNT($C$3:$V$3)+C27*0.4</f>
+        <v>0.03</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:V25" si="5">0.6*1/COUNT($C$3:$V$3)+D27*0.4</f>
+        <v>0.03</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <f>C25/SUM($C$25:$V$25)</f>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:V26" si="6">D25/SUM($C$25:$V$25)</f>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>0.30714285714285711</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>0.30714285714285711</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2217,5 +2550,6 @@
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Winrates_Data_2 - Kopi.xlsx
+++ b/Data/Winrates_Data_2 - Kopi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D5450-39EC-4A17-AA8D-D9C1449D5876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F54A16-7802-470B-859D-91561C05AC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B6D6821-1145-4596-9880-6E782CA02392}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Aggro DH</t>
   </si>
@@ -564,28 +564,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015156-9DF1-4446-BEA9-1D9FD9389257}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C1">
-        <f>1/COUNT($C$3:$V$3)</f>
-        <v>0.05</v>
-      </c>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D1">
-        <f t="shared" ref="D1:V1" si="0">1/COUNT($C$3:$V$3)</f>
+        <f>1/COUNT($D$3:$W$3)</f>
         <v>0.05</v>
       </c>
       <c r="E1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E1:W1" si="0">1/COUNT($D$3:$W$3)</f>
         <v>0.05</v>
       </c>
       <c r="F1">
@@ -656,1650 +653,1710 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f>1/COUNT($C$3:$C$22)</f>
-        <v>0.05</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B22" si="1">1/COUNT($C$3:$V$3)</f>
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="1">
+        <f>1/COUNT($D$3:$D$22)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C22" si="1">1/COUNT($D$3:$W$3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="1">
         <v>50</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>57.54</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>54.59</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>37.72</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>52.900000000000006</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>40.300000000000004</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>46.23</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>52.969999999999992</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>42.370000000000005</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>46.19</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>46.31</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>45.43</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>53.1</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>63.2</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>49.65</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>69.47</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>43.6</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>56.43</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>41.949999999999996</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>34.979999999999997</v>
       </c>
-      <c r="W3">
-        <f>SUMPRODUCT(C3:V3,$C$26:$V$26)</f>
+      <c r="X3">
+        <f>SUMPRODUCT(D3:W3,$D$26:$W$26)</f>
         <v>51.354214285714278</v>
       </c>
-      <c r="X3">
-        <f>MAX(W3:W23)</f>
+      <c r="Y3">
+        <f>MAX(X3:X23)</f>
         <v>53.323142857142855</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f t="shared" ref="A4:A22" si="2">1/COUNT($C$3:$C$22)</f>
-        <v>0.05</v>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B22" si="2">1/COUNT($D$3:$D$22)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>42.46</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>50</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>31.35</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>50.029999999999994</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>47.21</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>50.690000000000005</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>49.480000000000004</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>26.99</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>38.42</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>50.529999999999994</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>52.42</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>55.610000000000007</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>56.699999999999996</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>42.16</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>61.140000000000008</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>30.15</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>50.99</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>41.8</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>49.21</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>58.52</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W23" si="3">SUMPRODUCT(C4:V4,$C$26:$V$26)</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X23" si="3">SUMPRODUCT(D4:W4,$D$26:$W$26)</f>
         <v>41.254142857142845</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>45.41</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>68.650000000000006</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>45.83</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>51.739999999999995</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>61.07</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>70.86</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>25.430000000000003</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>30.42</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>56.98</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>54.09</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>50.78</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>49.57</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>63.839999999999996</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>53.65</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>46.97</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>63.38</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>45.67</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>50.55</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>48.480000000000004</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="3"/>
         <v>44.192214285714279</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>62.28</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>49.970000000000006</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>54.170000000000009</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>55.000000000000007</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>63.01</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>73.64</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>33.36</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>26.36</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>38.86</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>39.58</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>52.31</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>60.699999999999996</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>67.739999999999995</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>58.589999999999996</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>35.620000000000005</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>60.029999999999994</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>53.05</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>53.790000000000006</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>51.76</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="3"/>
         <v>47.52757142857142</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>47.099999999999994</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>52.790000000000006</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48.260000000000005</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>44.999999999999993</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>50</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>61.35</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>60.3</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>47.06</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>48.16</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>63.4</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>62.79</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>53.180000000000007</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>58.589999999999996</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>61.850000000000009</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>67.210000000000008</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>55.24</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>52.769999999999996</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>48.620000000000005</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>54.49</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>50.580000000000005</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f t="shared" si="3"/>
         <v>51.061571428571419</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>59.699999999999996</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>49.309999999999995</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>38.93</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>36.99</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>38.65</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>50</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>49.4</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>58.67</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>61.39</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>54.669999999999995</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>56.84</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>54.679999999999993</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>57.02</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>52.14</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>65.72</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>50.080000000000005</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>51.519999999999996</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>60.77</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>46.839999999999996</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>60.12</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="3"/>
         <v>50.379428571428555</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>53.77000000000001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>50.519999999999996</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>29.14</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>26.359999999999996</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>39.700000000000003</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>50.6</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>50</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>41.72</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>54.25</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>49.64</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>49.14</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>53.190000000000005</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>60.640000000000008</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>45.800000000000004</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>63.739999999999995</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>41.160000000000004</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>52.480000000000004</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>57.79</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>44.36</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>53.37</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="3"/>
         <v>43.992214285714276</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>47.030000000000008</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>73.009999999999991</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>74.570000000000007</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>66.64</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>52.94</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>41.33</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>58.28</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>50</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>50.72</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>55.169999999999995</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>57.320000000000007</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>50.77</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>53.33</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>67.84</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>53.66</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>57.16</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>40.479999999999997</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>56.52</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>41.97</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>36.309999999999995</v>
       </c>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <f t="shared" si="3"/>
         <v>52.662499999999987</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>57.63</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>61.58</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>69.58</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>73.64</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>51.839999999999996</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>38.61</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>45.75</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>49.28</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>54.58</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>45.78</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>36.730000000000004</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>51.190000000000005</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>55.25</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>61.309999999999995</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>50.629999999999995</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>49.07</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>46.72</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>44.85</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>61.739999999999995</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f t="shared" si="3"/>
         <v>51.514857142857139</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>53.81</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>49.470000000000006</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>43.02</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>61.139999999999993</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>36.6</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>45.330000000000005</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>50.360000000000007</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>44.830000000000005</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>45.42</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>50</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>56.03</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>48.13</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>49.03</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>43.669999999999995</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>57.29</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>34.28</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>38.47</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>46.47</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>63.04</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>71.17</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f t="shared" si="3"/>
         <v>44.427714285714281</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>53.689999999999991</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>47.58</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>45.91</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>60.420000000000009</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>37.21</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>43.16</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>50.859999999999992</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>42.679999999999993</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>54.22</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>43.97</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>50</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>41.24</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>45.34</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>45.45</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>55.789999999999992</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>37.78</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>37.36</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>44.39</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>64.89</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>73.16</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f t="shared" si="3"/>
         <v>43.720714285714287</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>54.570000000000007</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>44.389999999999993</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>49.22</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>47.69</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>46.819999999999993</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>45.320000000000007</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>46.809999999999995</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>49.23</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>63.27</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>51.86999999999999</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>58.76</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>50</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>56.110000000000007</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>57.699999999999996</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>60.85</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>52.75</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>45.69</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>49.32</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>44.42</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>46.949999999999996</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f t="shared" si="3"/>
         <v>49.337285714285706</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>46.9</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>43.300000000000004</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>50.43</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>39.300000000000004</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>41.410000000000004</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>42.98</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>39.359999999999992</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>46.67</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>48.809999999999995</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>50.970000000000006</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>54.66</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>43.889999999999993</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>50</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>43.75</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>54.75</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>52.790000000000006</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>43.11</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>44.79</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>44.51</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>42.39</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <f t="shared" si="3"/>
         <v>44.982214285714278</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>36.799999999999997</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>57.84</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>36.160000000000004</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>32.26</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>38.149999999999991</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>47.86</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>54.2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>32.159999999999997</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>44.75</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>56.330000000000005</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>54.55</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>42.300000000000004</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>56.25</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>50</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>55.66</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>36.18</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>41.410000000000004</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>40.22</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>65.59</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>58.69</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <f t="shared" si="3"/>
         <v>40.174857142857128</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>50.350000000000009</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>38.859999999999992</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>46.35</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>41.410000000000004</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>32.79</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>34.28</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>36.260000000000005</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>46.34</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>38.690000000000005</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>42.71</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>44.210000000000008</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>39.15</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>45.25</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>44.34</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>50</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>37.86</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>34.22</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>44.34</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>35.94</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>51.55</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <f t="shared" si="3"/>
         <v>40.499285714285705</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>30.53</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>69.849999999999994</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>53.03</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>64.38</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>44.76</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>49.919999999999995</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>58.84</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>42.84</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>49.370000000000005</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>65.72</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>62.22</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>47.25</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>47.209999999999994</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>63.82</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>62.139999999999993</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>50</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>59.18</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>44.17</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>43.57</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>35.480000000000004</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <f t="shared" si="3"/>
         <v>47.405999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>56.400000000000006</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>49.01</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>36.619999999999997</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>39.970000000000006</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>47.230000000000004</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>48.480000000000004</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>47.519999999999996</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>59.519999999999996</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>50.93</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>61.529999999999994</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>62.640000000000008</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>54.31</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>56.889999999999993</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>58.589999999999996</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>65.78</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>40.82</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <v>50</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>55.02</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>27.889999999999997</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>53.620000000000005</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f t="shared" si="3"/>
         <v>52.416499999999985</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>43.57</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>58.20000000000001</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>54.33</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>46.95</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>51.38</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>39.229999999999997</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>42.21</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>43.48</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>53.279999999999994</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>53.53</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>55.610000000000007</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>50.679999999999993</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>55.21</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>59.78</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>55.66</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>55.83</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>44.98</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <v>50</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>39.06</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>45.12</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <f t="shared" si="3"/>
         <v>48.490500000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>58.050000000000004</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>50.79</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>49.45</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>46.209999999999994</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>45.51</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>53.160000000000011</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>55.64</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>58.03</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>55.15</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>36.96</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>35.11</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>55.580000000000005</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>55.489999999999995</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>34.409999999999997</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>64.06</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>56.43</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>72.110000000000014</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>60.94</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <v>50</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>35.730000000000004</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <f t="shared" si="3"/>
         <v>51.628785714285719</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>65.02</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>41.48</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>51.519999999999996</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>48.24</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>49.419999999999995</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>39.880000000000003</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>46.63</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>63.690000000000005</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>38.260000000000005</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>28.83</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>26.839999999999996</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>53.05</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>57.610000000000007</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>41.31</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>48.45</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>64.52</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>46.379999999999995</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>54.879999999999995</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>64.27000000000001</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <v>50</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <f t="shared" si="3"/>
         <v>53.323142857142855</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C23">
-        <f>SUMPRODUCT(C3:C22,$B$3:$B$22)</f>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <f>SUMPRODUCT(D3:D22,$C$3:$C$22)</f>
         <v>50.753500000000003</v>
       </c>
-      <c r="D23">
-        <f t="shared" ref="D23:V23" si="4">SUMPRODUCT(D3:D22,$B$3:$B$22)</f>
+      <c r="E23">
+        <f t="shared" ref="E23:W23" si="4">SUMPRODUCT(E3:E22,$C$3:$C$22)</f>
         <v>53.207000000000008</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="4"/>
         <v>48.331500000000013</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="4"/>
         <v>48.009</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="4"/>
         <v>45.563000000000002</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="4"/>
         <v>47.328000000000003</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="4"/>
         <v>51.63150000000001</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="4"/>
         <v>45.747500000000002</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f t="shared" si="4"/>
         <v>47.212000000000003</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="4"/>
         <v>50.621999999999993</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="4"/>
         <v>51.244999999999997</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="4"/>
         <v>48.913000000000011</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f t="shared" si="4"/>
         <v>53.761499999999998</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f t="shared" si="4"/>
         <v>53.131999999999998</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="4"/>
         <v>58.25500000000001</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="4"/>
         <v>47.785999999999994</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="4"/>
         <v>48.861500000000007</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="4"/>
         <v>50.095500000000001</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f t="shared" si="4"/>
         <v>48.559500000000007</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <f t="shared" si="4"/>
         <v>50.986000000000004</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f t="shared" si="3"/>
         <v>47.51728571428572</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C25">
-        <f>0.6*1/COUNT($C$3:$V$3)+C27*0.4</f>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <f>0.6*1/COUNT($D$3:$W$3)+D27*0.4</f>
         <v>0.03</v>
       </c>
-      <c r="D25">
-        <f t="shared" ref="D25:V25" si="5">0.6*1/COUNT($C$3:$V$3)+D27*0.4</f>
-        <v>0.03</v>
-      </c>
       <c r="E25">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E25:W25" si="5">0.6*1/COUNT($D$3:$W$3)+E27*0.4</f>
         <v>0.03</v>
       </c>
       <c r="F25">
@@ -2308,11 +2365,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>0.43000000000000005</v>
+        <v>0.03</v>
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="I25">
         <f t="shared" si="5"/>
@@ -2320,11 +2377,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
-        <v>0.43000000000000005</v>
+        <v>0.03</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
@@ -2370,21 +2427,21 @@
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
+      <c r="W25">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="C26">
-        <f>C25/SUM($C$25:$V$25)</f>
+      <c r="D26">
+        <f>D25/SUM($D$25:$W$25)</f>
         <v>2.1428571428571422E-2</v>
       </c>
-      <c r="D26">
-        <f t="shared" ref="D26:V26" si="6">D25/SUM($C$25:$V$25)</f>
-        <v>2.1428571428571422E-2</v>
-      </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E26:W26" si="6">E25/SUM($D$25:$W$25)</f>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="F26">
@@ -2393,11 +2450,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="6"/>
-        <v>0.30714285714285711</v>
+        <v>2.1428571428571422E-2</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
-        <v>2.1428571428571422E-2</v>
+        <v>0.30714285714285711</v>
       </c>
       <c r="I26">
         <f t="shared" si="6"/>
@@ -2405,11 +2462,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
-        <v>0.30714285714285711</v>
+        <v>2.1428571428571422E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
-        <v>2.1428571428571422E-2</v>
+        <v>0.30714285714285711</v>
       </c>
       <c r="L26">
         <f t="shared" si="6"/>
@@ -2455,13 +2512,14 @@
         <f t="shared" si="6"/>
         <v>2.1428571428571422E-2</v>
       </c>
+      <c r="W26">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571422E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
         <v>20</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2473,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2520,33 +2578,36 @@
       <c r="V27">
         <v>0</v>
       </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q3:Q22">
+  <conditionalFormatting sqref="R3:R22">
     <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
+  <conditionalFormatting sqref="H3:H22">
     <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K22">
+  <conditionalFormatting sqref="L3:L22">
     <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N22">
+  <conditionalFormatting sqref="O3:O22">
     <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D22">
+  <conditionalFormatting sqref="E3:E22">
     <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J22">
+  <conditionalFormatting sqref="K3:K22">
     <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V22">
+  <conditionalFormatting sqref="W3:W22">
     <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M22">
+  <conditionalFormatting sqref="N3:N22">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Winrates_Data_2 - Kopi.xlsx
+++ b/Data/Winrates_Data_2 - Kopi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F54A16-7802-470B-859D-91561C05AC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA9CC1-1C25-47CC-9D9C-C4A922F49890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B6D6821-1145-4596-9880-6E782CA02392}"/>
   </bookViews>
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,13 +183,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015156-9DF1-4446-BEA9-1D9FD9389257}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2580,6 +2589,68 @@
       </c>
       <c r="W27">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30" s="7">
+        <v>7</v>
+      </c>
+      <c r="L30" s="7">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>11</v>
+      </c>
+      <c r="P30">
+        <v>12</v>
+      </c>
+      <c r="Q30">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <v>14</v>
+      </c>
+      <c r="S30">
+        <v>15</v>
+      </c>
+      <c r="T30">
+        <v>16</v>
+      </c>
+      <c r="U30">
+        <v>17</v>
+      </c>
+      <c r="V30">
+        <v>18</v>
+      </c>
+      <c r="W30" s="8">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Winrates_Data_2 - Kopi.xlsx
+++ b/Data/Winrates_Data_2 - Kopi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA9CC1-1C25-47CC-9D9C-C4A922F49890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D0B20-C2BD-44EE-ACFB-B3B766D28669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B6D6821-1145-4596-9880-6E782CA02392}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Aggro DH</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Normaliseret</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -573,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015156-9DF1-4446-BEA9-1D9FD9389257}">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,8 +615,8 @@
         <v>0.05</v>
       </c>
       <c r="H1">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>1/COUNT($D$3:$W$3)*0.5+0.2*1</f>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I1">
         <f t="shared" si="0"/>
@@ -2651,6 +2663,20 @@
       </c>
       <c r="W30" s="8">
         <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Winrates_Data_2 - Kopi.xlsx
+++ b/Data/Winrates_Data_2 - Kopi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D0B20-C2BD-44EE-ACFB-B3B766D28669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA57A6E-2170-4BD1-89F6-1CA60FC0CA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B6D6821-1145-4596-9880-6E782CA02392}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Aggro DH</t>
   </si>
@@ -111,6 +111,48 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Highlander hunter</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>Pure P</t>
+  </si>
+  <si>
+    <t>Galak R</t>
+  </si>
+  <si>
+    <t>Control W</t>
+  </si>
+  <si>
+    <t>Gala Sha</t>
   </si>
 </sst>
 </file>
@@ -134,18 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,16 +231,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,19 +626,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015156-9DF1-4446-BEA9-1D9FD9389257}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.08984375" customWidth="1"/>
+    <col min="27" max="27" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D1">
         <f>1/COUNT($D$3:$W$3)</f>
         <v>0.05</v>
@@ -678,8 +722,29 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -740,8 +805,29 @@
       <c r="W2" t="s">
         <v>19</v>
       </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -813,16 +899,42 @@
       <c r="W3" s="2">
         <v>34.979999999999997</v>
       </c>
-      <c r="X3">
-        <f>SUMPRODUCT(D3:W3,$D$26:$W$26)</f>
-        <v>51.354214285714278</v>
-      </c>
-      <c r="Y3">
-        <f>MAX(X3:X23)</f>
-        <v>53.323142857142855</v>
+      <c r="X3" s="12">
+        <f>SUM(D3:W3)*0.05*Z3+$AA$3*H3+$AB$3*G3+$AC$3*L3+$AD$3*O3+$AE$3*V3+Q3*$AF$3</f>
+        <v>63.029047813590097</v>
+      </c>
+      <c r="Y3" s="10">
+        <f>X3/SUM(X3:X23)</f>
+        <v>5.6528341541155533E-2</v>
+      </c>
+      <c r="Z3" s="8">
+        <f>4.21097904967754*10^(-15)</f>
+        <v>4.2109790496775403E-15</v>
+      </c>
+      <c r="AA3" s="8">
+        <f>31329.6841296009*10^(-16)</f>
+        <v>3.1329684129600902E-12</v>
+      </c>
+      <c r="AB3" s="8">
+        <f>1165464.24962115*10^(-15)</f>
+        <v>1.1654642496211502E-9</v>
+      </c>
+      <c r="AC3" s="8">
+        <f>289035133.906046*10^(-15)</f>
+        <v>2.8903513390604597E-7</v>
+      </c>
+      <c r="AD3" s="8">
+        <f>53760534906.5246*10^(-15)</f>
+        <v>5.3760534906524599E-5</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>7.9995675940900193E-3</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>0.99194638166726801</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -867,7 +979,7 @@
       <c r="N4">
         <v>52.42</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>55.610000000000007</v>
       </c>
       <c r="P4">
@@ -894,12 +1006,13 @@
       <c r="W4">
         <v>58.52</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X23" si="3">SUMPRODUCT(D4:W4,$D$26:$W$26)</f>
-        <v>41.254142857142845</v>
-      </c>
+      <c r="X4" s="12">
+        <f>SUM(D4:W4)*0.05*Z4+$AA$3*H4+$AB$3*G4+$AC$3*L4+$AD$3*O4+$AE$3*V4+Q4*$AF$3</f>
+        <v>42.217118958929262</v>
+      </c>
+      <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -971,12 +1084,13 @@
       <c r="W5">
         <v>48.480000000000004</v>
       </c>
-      <c r="X5">
-        <f t="shared" si="3"/>
-        <v>44.192214285714279</v>
-      </c>
+      <c r="X5" s="12">
+        <f t="shared" ref="X5:X23" si="3">SUM(D5:W5)*0.05*Z5+$AA$3*H5+$AB$3*G5+$AC$3*L5+$AD$3*O5+$AE$3*V5+Q5*$AF$3</f>
+        <v>63.732973953506288</v>
+      </c>
+      <c r="Y5" s="10"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1048,12 +1162,13 @@
       <c r="W6">
         <v>51.76</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="13">
         <f t="shared" si="3"/>
-        <v>47.52757142857142</v>
-      </c>
+        <v>67.627564526019441</v>
+      </c>
+      <c r="Y6" s="11"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1125,12 +1240,17 @@
       <c r="W7">
         <v>50.580000000000005</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="12">
         <f t="shared" si="3"/>
-        <v>51.061571428571419</v>
+        <v>61.790653102103413</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="AA7">
+        <f>MAX(X3:X23)</f>
+        <v>67.632128544283006</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1202,12 +1322,13 @@
       <c r="W8">
         <v>60.12</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="12">
         <f t="shared" si="3"/>
-        <v>50.379428571428555</v>
-      </c>
+        <v>52.097741499385705</v>
+      </c>
+      <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1279,12 +1400,13 @@
       <c r="W9">
         <v>53.37</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="12">
         <f t="shared" si="3"/>
-        <v>43.992214285714276</v>
-      </c>
+        <v>45.788880332688414</v>
+      </c>
+      <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1356,12 +1478,17 @@
       <c r="W10">
         <v>36.309999999999995</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="13">
         <f t="shared" si="3"/>
-        <v>52.662499999999987</v>
+        <v>67.632128544283006</v>
+      </c>
+      <c r="Y10" s="11"/>
+      <c r="AA10">
+        <f>X6-X10</f>
+        <v>-4.5640182635651172E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1433,12 +1560,13 @@
       <c r="W11">
         <v>61.739999999999995</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="12">
         <f t="shared" si="3"/>
-        <v>51.514857142857139</v>
-      </c>
+        <v>55.165807355902508</v>
+      </c>
+      <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1510,12 +1638,13 @@
       <c r="W12">
         <v>71.17</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="12">
         <f t="shared" si="3"/>
-        <v>44.427714285714281</v>
-      </c>
+        <v>43.825191922433007</v>
+      </c>
+      <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1587,12 +1716,13 @@
       <c r="W13">
         <v>73.16</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="12">
         <f t="shared" si="3"/>
-        <v>43.720714285714287</v>
-      </c>
+        <v>45.605287814436267</v>
+      </c>
+      <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1664,12 +1794,13 @@
       <c r="W14">
         <v>46.949999999999996</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="12">
         <f t="shared" si="3"/>
-        <v>49.337285714285706</v>
-      </c>
+        <v>57.593353384456762</v>
+      </c>
+      <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1741,12 +1872,13 @@
       <c r="W15">
         <v>42.39</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="12">
         <f t="shared" si="3"/>
-        <v>44.982214285714278</v>
-      </c>
+        <v>43.756088655170338</v>
+      </c>
+      <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1818,12 +1950,13 @@
       <c r="W16">
         <v>58.69</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="12">
         <f t="shared" si="3"/>
-        <v>40.174857142857128</v>
-      </c>
+        <v>50.124297764525956</v>
+      </c>
+      <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1895,12 +2028,13 @@
       <c r="W17">
         <v>51.55</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="12">
         <f t="shared" si="3"/>
-        <v>40.499285714285705</v>
-      </c>
+        <v>44.272522978533786</v>
+      </c>
+      <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1972,12 +2106,13 @@
       <c r="W18">
         <v>35.480000000000004</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="12">
         <f t="shared" si="3"/>
-        <v>47.405999999999992</v>
-      </c>
+        <v>63.657113768191259</v>
+      </c>
+      <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2049,12 +2184,13 @@
       <c r="W19">
         <v>53.620000000000005</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="12">
         <f t="shared" si="3"/>
-        <v>52.416499999999985</v>
-      </c>
+        <v>58.344180944026114</v>
+      </c>
+      <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2126,12 +2262,13 @@
       <c r="W20">
         <v>45.12</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="12">
         <f t="shared" si="3"/>
-        <v>48.490500000000004</v>
-      </c>
+        <v>59.613757844874954</v>
+      </c>
+      <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2203,12 +2340,13 @@
       <c r="W21">
         <v>35.730000000000004</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="12">
         <f t="shared" si="3"/>
-        <v>51.628785714285719</v>
-      </c>
+        <v>34.535857377691613</v>
+      </c>
+      <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2253,7 +2391,7 @@
       <c r="N22">
         <v>26.839999999999996</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="4">
         <v>53.05</v>
       </c>
       <c r="P22">
@@ -2280,12 +2418,13 @@
       <c r="W22" s="4">
         <v>50</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="12">
         <f t="shared" si="3"/>
-        <v>53.323142857142855</v>
-      </c>
+        <v>41.494300347184847</v>
+      </c>
+      <c r="Y22" s="10"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D23">
         <f>SUMPRODUCT(D3:D22,$C$3:$C$22)</f>
         <v>50.753500000000003</v>
@@ -2366,12 +2505,13 @@
         <f t="shared" si="4"/>
         <v>50.986000000000004</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="12">
         <f t="shared" si="3"/>
-        <v>47.51728571428572</v>
-      </c>
+        <v>53.095193444396642</v>
+      </c>
+      <c r="Y23" s="10"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D25">
         <f>0.6*1/COUNT($D$3:$W$3)+D27*0.4</f>
         <v>0.03</v>
@@ -2453,7 +2593,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2678,7 @@
         <v>2.1428571428571422E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -2603,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D30">
         <v>0</v>
       </c>
@@ -2616,7 +2756,7 @@
       <c r="G30">
         <v>3</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>4</v>
       </c>
       <c r="I30">
@@ -2625,10 +2765,10 @@
       <c r="J30">
         <v>6</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <v>7</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <v>8</v>
       </c>
       <c r="M30">
@@ -2661,11 +2801,11 @@
       <c r="V30">
         <v>18</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W30" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="G31" t="s">
         <v>22</v>
       </c>

--- a/Data/Winrates_Data_2 - Kopi.xlsx
+++ b/Data/Winrates_Data_2 - Kopi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA57A6E-2170-4BD1-89F6-1CA60FC0CA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E1F8E-9F1F-440B-9CA2-C540651145DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B6D6821-1145-4596-9880-6E782CA02392}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Winrates_Data_2 - Kopi.xlsx
+++ b/Data/Winrates_Data_2 - Kopi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E1F8E-9F1F-440B-9CA2-C540651145DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F241FA8-2874-4FE1-AED2-0D768B65D552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B6D6821-1145-4596-9880-6E782CA02392}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Aggro DH</t>
   </si>
@@ -137,22 +137,28 @@
     <t>Mix</t>
   </si>
   <si>
-    <t>Highlander hunter</t>
-  </si>
-  <si>
-    <t>Face</t>
-  </si>
-  <si>
-    <t>Pure P</t>
-  </si>
-  <si>
-    <t>Galak R</t>
-  </si>
-  <si>
-    <t>Control W</t>
-  </si>
-  <si>
-    <t>Gala Sha</t>
+    <t>Enrage Warrior'</t>
+  </si>
+  <si>
+    <t>Highlander priest'</t>
+  </si>
+  <si>
+    <t>'Highlander Hunter', 'Quest warlock'</t>
+  </si>
+  <si>
+    <t>'Highlander priest', 'Galakrond shaman'</t>
+  </si>
+  <si>
+    <t>'Level-7 spiller: Totem shaman'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['Highlander Hunter', 'Murloc Paladin']</t>
+  </si>
+  <si>
+    <t>Afrundet</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
 </sst>
 </file>
@@ -626,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015156-9DF1-4446-BEA9-1D9FD9389257}">
-  <dimension ref="A1:AF31"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,11 +643,16 @@
     <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.08984375" customWidth="1"/>
-    <col min="27" max="27" width="16.08984375" customWidth="1"/>
+    <col min="24" max="26" width="11.08984375" customWidth="1"/>
+    <col min="28" max="28" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="D1">
         <f>1/COUNT($D$3:$W$3)</f>
         <v>0.05</v>
@@ -722,29 +733,29 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -805,29 +816,38 @@
       <c r="W2" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -900,41 +920,45 @@
         <v>34.979999999999997</v>
       </c>
       <c r="X3" s="12">
-        <f>SUM(D3:W3)*0.05*Z3+$AA$3*H3+$AB$3*G3+$AC$3*L3+$AD$3*O3+$AE$3*V3+Q3*$AF$3</f>
+        <f>SUM(D3:W3)*0.05*AA3+$AB$3*H3+$AC$3*G3+$AD$3*L3+$AE$3*O3+$AF$3*V3+Q3*$AG$3</f>
         <v>63.029047813590097</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="12">
+        <f>SUM(D3:W3)*0.05*$AA$3+$AB$3*(H3+K3)/2+$AC$3*W3+$AD$3*N3+$AE$3*(H3+T3)/2+$AF$3*V3+$AG$3*(N3+Q3)/2</f>
+        <v>54.652213360723621</v>
+      </c>
+      <c r="Z3" s="10">
         <f>X3/SUM(X3:X23)</f>
         <v>5.6528341541155533E-2</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AA3" s="8">
         <f>4.21097904967754*10^(-15)</f>
         <v>4.2109790496775403E-15</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AB3" s="8">
         <f>31329.6841296009*10^(-16)</f>
         <v>3.1329684129600902E-12</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AC3" s="8">
         <f>1165464.24962115*10^(-15)</f>
         <v>1.1654642496211502E-9</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AD3" s="8">
         <f>289035133.906046*10^(-15)</f>
         <v>2.8903513390604597E-7</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AE3" s="8">
         <f>53760534906.5246*10^(-15)</f>
         <v>5.3760534906524599E-5</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AF3" s="9">
         <v>7.9995675940900193E-3</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AG3" s="9">
         <v>0.99194638166726801</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1007,12 +1031,16 @@
         <v>58.52</v>
       </c>
       <c r="X4" s="12">
-        <f>SUM(D4:W4)*0.05*Z4+$AA$3*H4+$AB$3*G4+$AC$3*L4+$AD$3*O4+$AE$3*V4+Q4*$AF$3</f>
+        <f>SUM(D4:W4)*0.05*AA4+$AB$3*H4+$AC$3*G4+$AD$3*L4+$AE$3*O4+$AF$3*V4+Q4*$AG$3</f>
         <v>42.217118958929262</v>
       </c>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="12">
+        <f t="shared" ref="Y4:Y23" si="3">SUM(D4:W4)*0.05*$AA$3+$AB$3*(H4+K4)/2+$AC$3*W4+$AD$3*N4+$AE$3*(H4+T4)/2+$AF$3*V4+$AG$3*(N4+Q4)/2</f>
+        <v>47.305457972155303</v>
+      </c>
+      <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1085,12 +1113,16 @@
         <v>48.480000000000004</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" ref="X5:X23" si="3">SUM(D5:W5)*0.05*Z5+$AA$3*H5+$AB$3*G5+$AC$3*L5+$AD$3*O5+$AE$3*V5+Q5*$AF$3</f>
+        <f t="shared" ref="X5:X23" si="4">SUM(D5:W5)*0.05*AA5+$AB$3*H5+$AC$3*G5+$AD$3*L5+$AE$3*O5+$AF$3*V5+Q5*$AG$3</f>
         <v>63.732973953506288</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="12">
+        <f t="shared" si="3"/>
+        <v>58.897606683814132</v>
+      </c>
+      <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1163,12 +1195,16 @@
         <v>51.76</v>
       </c>
       <c r="X6" s="13">
+        <f t="shared" si="4"/>
+        <v>67.627564526019441</v>
+      </c>
+      <c r="Y6" s="12">
         <f t="shared" si="3"/>
-        <v>67.627564526019441</v>
-      </c>
-      <c r="Y6" s="11"/>
+        <v>53.661243118790509</v>
+      </c>
+      <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1241,16 +1277,20 @@
         <v>50.580000000000005</v>
       </c>
       <c r="X7" s="12">
+        <f t="shared" si="4"/>
+        <v>61.790653102103413</v>
+      </c>
+      <c r="Y7" s="13">
         <f t="shared" si="3"/>
-        <v>61.790653102103413</v>
-      </c>
-      <c r="Y7" s="10"/>
-      <c r="AA7">
+        <v>62.256775636409792</v>
+      </c>
+      <c r="Z7" s="10"/>
+      <c r="AB7">
         <f>MAX(X3:X23)</f>
         <v>67.632128544283006</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1323,12 +1363,16 @@
         <v>60.12</v>
       </c>
       <c r="X8" s="12">
+        <f t="shared" si="4"/>
+        <v>52.097741499385705</v>
+      </c>
+      <c r="Y8" s="12">
         <f t="shared" si="3"/>
-        <v>52.097741499385705</v>
-      </c>
-      <c r="Y8" s="10"/>
+        <v>54.428298375850268</v>
+      </c>
+      <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1401,12 +1445,16 @@
         <v>53.37</v>
       </c>
       <c r="X9" s="12">
+        <f t="shared" si="4"/>
+        <v>45.788880332688414</v>
+      </c>
+      <c r="Y9" s="12">
         <f t="shared" si="3"/>
-        <v>45.788880332688414</v>
-      </c>
-      <c r="Y9" s="10"/>
+        <v>47.445047644787941</v>
+      </c>
+      <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1479,16 +1527,20 @@
         <v>36.309999999999995</v>
       </c>
       <c r="X10" s="13">
+        <f t="shared" si="4"/>
+        <v>67.632128544283006</v>
+      </c>
+      <c r="Y10" s="12">
         <f t="shared" si="3"/>
-        <v>67.632128544283006</v>
-      </c>
-      <c r="Y10" s="11"/>
-      <c r="AA10">
+        <v>62.414274181220442</v>
+      </c>
+      <c r="Z10" s="11"/>
+      <c r="AB10">
         <f>X6-X10</f>
         <v>-4.5640182635651172E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1561,12 +1613,16 @@
         <v>61.739999999999995</v>
       </c>
       <c r="X11" s="12">
+        <f t="shared" si="4"/>
+        <v>55.165807355902508</v>
+      </c>
+      <c r="Y11" s="12">
         <f t="shared" si="3"/>
-        <v>55.165807355902508</v>
-      </c>
-      <c r="Y11" s="10"/>
+        <v>50.469677868448507</v>
+      </c>
+      <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1639,12 +1695,16 @@
         <v>71.17</v>
       </c>
       <c r="X12" s="12">
+        <f t="shared" si="4"/>
+        <v>43.825191922433007</v>
+      </c>
+      <c r="Y12" s="12">
         <f t="shared" si="3"/>
-        <v>43.825191922433007</v>
-      </c>
-      <c r="Y12" s="10"/>
+        <v>49.954854046634864</v>
+      </c>
+      <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1717,12 +1777,16 @@
         <v>73.16</v>
       </c>
       <c r="X13" s="12">
+        <f t="shared" si="4"/>
+        <v>45.605287814436267</v>
+      </c>
+      <c r="Y13" s="12">
         <f t="shared" si="3"/>
-        <v>45.605287814436267</v>
-      </c>
-      <c r="Y13" s="10"/>
+        <v>47.861752004942268</v>
+      </c>
+      <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1795,12 +1859,16 @@
         <v>46.949999999999996</v>
       </c>
       <c r="X14" s="12">
+        <f t="shared" si="4"/>
+        <v>57.593353384456762</v>
+      </c>
+      <c r="Y14" s="12">
         <f t="shared" si="3"/>
-        <v>57.593353384456762</v>
-      </c>
-      <c r="Y14" s="10"/>
+        <v>58.118882329130287</v>
+      </c>
+      <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1873,12 +1941,16 @@
         <v>42.39</v>
       </c>
       <c r="X15" s="12">
+        <f t="shared" si="4"/>
+        <v>43.756088655170338</v>
+      </c>
+      <c r="Y15" s="12">
         <f t="shared" si="3"/>
-        <v>43.756088655170338</v>
-      </c>
-      <c r="Y15" s="10"/>
+        <v>49.16707023195864</v>
+      </c>
+      <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1951,12 +2023,16 @@
         <v>58.69</v>
       </c>
       <c r="X16" s="12">
+        <f t="shared" si="4"/>
+        <v>50.124297764525956</v>
+      </c>
+      <c r="Y16" s="12">
         <f t="shared" si="3"/>
-        <v>50.124297764525956</v>
-      </c>
-      <c r="Y16" s="10"/>
+        <v>52.380843169609363</v>
+      </c>
+      <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2029,12 +2105,16 @@
         <v>51.55</v>
       </c>
       <c r="X17" s="12">
+        <f t="shared" si="4"/>
+        <v>44.272522978533786</v>
+      </c>
+      <c r="Y17" s="12">
         <f t="shared" si="3"/>
-        <v>44.272522978533786</v>
-      </c>
-      <c r="Y17" s="10"/>
+        <v>44.207744592819019</v>
+      </c>
+      <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2107,12 +2187,16 @@
         <v>35.480000000000004</v>
       </c>
       <c r="X18" s="12">
+        <f t="shared" si="4"/>
+        <v>63.657113768191259</v>
+      </c>
+      <c r="Y18" s="13">
         <f t="shared" si="3"/>
-        <v>63.657113768191259</v>
-      </c>
-      <c r="Y18" s="10"/>
+        <v>62.863814092998972</v>
+      </c>
+      <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2185,12 +2269,16 @@
         <v>53.620000000000005</v>
       </c>
       <c r="X19" s="12">
+        <f t="shared" si="4"/>
+        <v>58.344180944026114</v>
+      </c>
+      <c r="Y19" s="12">
         <f t="shared" si="3"/>
-        <v>58.344180944026114</v>
-      </c>
-      <c r="Y19" s="10"/>
+        <v>60.352569601185522</v>
+      </c>
+      <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2263,12 +2351,16 @@
         <v>45.12</v>
       </c>
       <c r="X20" s="12">
+        <f t="shared" si="4"/>
+        <v>59.613757844874954</v>
+      </c>
+      <c r="Y20" s="12">
         <f t="shared" si="3"/>
-        <v>59.613757844874954</v>
-      </c>
-      <c r="Y20" s="10"/>
+        <v>57.545415909068339</v>
+      </c>
+      <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2341,12 +2433,16 @@
         <v>35.730000000000004</v>
       </c>
       <c r="X21" s="12">
+        <f t="shared" si="4"/>
+        <v>34.535857377691613</v>
+      </c>
+      <c r="Y21" s="12">
         <f t="shared" si="3"/>
-        <v>34.535857377691613</v>
-      </c>
-      <c r="Y21" s="10"/>
+        <v>34.883206453344592</v>
+      </c>
+      <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2419,181 +2515,189 @@
         <v>50</v>
       </c>
       <c r="X22" s="12">
+        <f t="shared" si="4"/>
+        <v>41.494300347184847</v>
+      </c>
+      <c r="Y22" s="12">
         <f t="shared" si="3"/>
-        <v>41.494300347184847</v>
-      </c>
-      <c r="Y22" s="10"/>
+        <v>34.317288110359947</v>
+      </c>
+      <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D23">
         <f>SUMPRODUCT(D3:D22,$C$3:$C$22)</f>
         <v>50.753500000000003</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:W23" si="4">SUMPRODUCT(E3:E22,$C$3:$C$22)</f>
+        <f t="shared" ref="E23:W23" si="5">SUMPRODUCT(E3:E22,$C$3:$C$22)</f>
         <v>53.207000000000008</v>
       </c>
       <c r="F23">
+        <f t="shared" si="5"/>
+        <v>48.331500000000013</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>48.009</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>45.563000000000002</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>47.328000000000003</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>51.63150000000001</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>45.747500000000002</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>47.212000000000003</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>50.621999999999993</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>51.244999999999997</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>48.913000000000011</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>53.761499999999998</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>53.131999999999998</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>58.25500000000001</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>47.785999999999994</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>48.861500000000007</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="5"/>
+        <v>50.095500000000001</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="5"/>
+        <v>48.559500000000007</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="5"/>
+        <v>50.986000000000004</v>
+      </c>
+      <c r="X23" s="12">
         <f t="shared" si="4"/>
-        <v>48.331500000000013</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>48.009</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
-        <v>45.563000000000002</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
-        <v>47.328000000000003</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>51.63150000000001</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>45.747500000000002</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
-        <v>47.212000000000003</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="4"/>
-        <v>50.621999999999993</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
-        <v>51.244999999999997</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
-        <v>48.913000000000011</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="4"/>
-        <v>53.761499999999998</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="4"/>
-        <v>53.131999999999998</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="4"/>
-        <v>58.25500000000001</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="4"/>
-        <v>47.785999999999994</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="4"/>
-        <v>48.861500000000007</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>50.095500000000001</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="4"/>
-        <v>48.559500000000007</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="4"/>
-        <v>50.986000000000004</v>
-      </c>
-      <c r="X23" s="12">
+        <v>53.095193444396642</v>
+      </c>
+      <c r="Y23" s="12">
         <f t="shared" si="3"/>
-        <v>53.095193444396642</v>
-      </c>
-      <c r="Y23" s="10"/>
+        <v>52.159201769212615</v>
+      </c>
+      <c r="Z23" s="10"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D25">
         <f>0.6*1/COUNT($D$3:$W$3)+D27*0.4</f>
         <v>0.03</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:W25" si="5">0.6*1/COUNT($D$3:$W$3)+E27*0.4</f>
+        <f t="shared" ref="E25:W25" si="6">0.6*1/COUNT($D$3:$W$3)+E27*0.4</f>
         <v>0.03</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43000000000000005</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="J25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="K25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43000000000000005</v>
       </c>
       <c r="L25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="O25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="R25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="S25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="T25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="U25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="V25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="W25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -2602,83 +2706,83 @@
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:W26" si="6">E25/SUM($D$25:$W$25)</f>
+        <f t="shared" ref="E26:W26" si="7">E25/SUM($D$25:$W$25)</f>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30714285714285711</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30714285714285711</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="R26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="T26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="U26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="V26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
       <c r="W26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1428571428571422E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -2743,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D30">
         <v>0</v>
       </c>
@@ -2805,7 +2909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G31" t="s">
         <v>22</v>
       </c>
